--- a/data/trans_orig/LAWTONB_2R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6054</v>
+        <v>5921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19520</v>
+        <v>18637</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1935087304166154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1012680136864237</v>
+        <v>0.09904292048656617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3265086105773143</v>
+        <v>0.3117361522564031</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7763</v>
+        <v>8223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18220</v>
+        <v>18807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4499232004478737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2612871939483787</v>
+        <v>0.2767738063805024</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6132892778814524</v>
+        <v>0.6330387125982585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>24935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17104</v>
+        <v>17329</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34566</v>
+        <v>34792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2786296786638755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1911241306591079</v>
+        <v>0.1936311596887396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3862370295893409</v>
+        <v>0.3887683202980698</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>48215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40264</v>
+        <v>41147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53730</v>
+        <v>53863</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8064912695833846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6734913894226856</v>
+        <v>0.6882638477435972</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8987319863135763</v>
+        <v>0.9009570795134341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -836,19 +836,19 @@
         <v>16342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11489</v>
+        <v>10902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21946</v>
+        <v>21486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5500767995521263</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3867107221185476</v>
+        <v>0.3669612874017422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7387128060516212</v>
+        <v>0.7232261936194976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -857,19 +857,19 @@
         <v>64558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54927</v>
+        <v>54701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72389</v>
+        <v>72164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7213703213361244</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6137629704106592</v>
+        <v>0.6112316797019302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8088758693408922</v>
+        <v>0.8063688403112604</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11633</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6599</v>
+        <v>6377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19005</v>
+        <v>19682</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2288670555486712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1298263891840487</v>
+        <v>0.1254611235344848</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3738957862949689</v>
+        <v>0.387220901149855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2072</v>
+        <v>2110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9758</v>
+        <v>9561</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.339066971000904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1312388058490401</v>
+        <v>0.1336879089456243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6181167623626529</v>
+        <v>0.605675929467837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1003,19 +1003,19 @@
         <v>16986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10244</v>
+        <v>10667</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24766</v>
+        <v>24925</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2549807992720086</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1537780923825479</v>
+        <v>0.1601251285743678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3717742787140638</v>
+        <v>0.3741581949096752</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>39197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31825</v>
+        <v>31148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44231</v>
+        <v>44453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7711329444513287</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.626104213705031</v>
+        <v>0.6127790988501457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8701736108159512</v>
+        <v>0.8745388764655152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1053,19 +1053,19 @@
         <v>10433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6028</v>
+        <v>6225</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13714</v>
+        <v>13676</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.660933028999096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3818832376373467</v>
+        <v>0.3943240705321627</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8687611941509598</v>
+        <v>0.8663120910543757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>50</v>
@@ -1074,19 +1074,19 @@
         <v>49630</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41850</v>
+        <v>41691</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56372</v>
+        <v>55949</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7450192007279913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6282257212859361</v>
+        <v>0.6258418050903248</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8462219076174521</v>
+        <v>0.8398748714256323</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18865</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12128</v>
+        <v>12865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27217</v>
+        <v>26786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2629178264768318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1690151148628834</v>
+        <v>0.1792917573920323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.379302899697006</v>
+        <v>0.3732999220933146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>8320</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3970</v>
+        <v>4138</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13441</v>
+        <v>13543</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3427435561254856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1635400502611757</v>
+        <v>0.1704487090632697</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5537129491988232</v>
+        <v>0.5579021675436696</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -1220,19 +1220,19 @@
         <v>27186</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18316</v>
+        <v>19520</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35871</v>
+        <v>36317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2830969861197078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1907369122988797</v>
+        <v>0.2032694523091167</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3735411252409759</v>
+        <v>0.3781811134336207</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>52889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44537</v>
+        <v>44968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59626</v>
+        <v>58889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7370821735231682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6206971003029944</v>
+        <v>0.6267000779066855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8309848851371167</v>
+        <v>0.820708242607968</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1270,19 +1270,19 @@
         <v>15955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10834</v>
+        <v>10732</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20305</v>
+        <v>20137</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6572564438745144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4462870508011768</v>
+        <v>0.4420978324563309</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8364599497388244</v>
+        <v>0.8295512909367304</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -1291,19 +1291,19 @@
         <v>68844</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60159</v>
+        <v>59713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77714</v>
+        <v>76510</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7169030138802922</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6264588747590236</v>
+        <v>0.6218188865663792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8092630877011198</v>
+        <v>0.7967305476908834</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>72312</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59590</v>
+        <v>60010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87349</v>
+        <v>87729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2780476890388038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2291273202391887</v>
+        <v>0.23074538859586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3358650538795043</v>
+        <v>0.3373256886280991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1416,19 +1416,19 @@
         <v>24379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16848</v>
+        <v>17269</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33368</v>
+        <v>33466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2842935717560397</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1964756631052872</v>
+        <v>0.2013879014496777</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3891247180485279</v>
+        <v>0.3902617391089271</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -1437,19 +1437,19 @@
         <v>96691</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79656</v>
+        <v>80124</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112724</v>
+        <v>111093</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2795964459379419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2303381652051343</v>
+        <v>0.2316891399732298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3259572858638402</v>
+        <v>0.3212425413037586</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>187760</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172723</v>
+        <v>172343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200482</v>
+        <v>200062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7219523109611962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6641349461204956</v>
+        <v>0.6626743113719008</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7708726797608113</v>
+        <v>0.76925461140414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -1487,19 +1487,19 @@
         <v>61373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52384</v>
+        <v>52286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68904</v>
+        <v>68483</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7157064282439602</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6108752819514719</v>
+        <v>0.6097382608910732</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8035243368947126</v>
+        <v>0.7986120985503222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>263</v>
@@ -1508,19 +1508,19 @@
         <v>249133</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>233100</v>
+        <v>234731</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>266168</v>
+        <v>265700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.720403554062058</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6740427141361606</v>
+        <v>0.6787574586962414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7696618347948658</v>
+        <v>0.7683108600267703</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16914</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11336</v>
+        <v>10845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24195</v>
+        <v>23334</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3049513203106668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2043742336811629</v>
+        <v>0.1955210565488917</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4362168633535184</v>
+        <v>0.4206979302407718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1633,19 +1633,19 @@
         <v>36414</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27457</v>
+        <v>26797</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47041</v>
+        <v>46932</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3783283650271777</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2852701270615048</v>
+        <v>0.2784126114214822</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4887367659469691</v>
+        <v>0.4876007855324299</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1654,19 +1654,19 @@
         <v>53328</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40900</v>
+        <v>41328</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65105</v>
+        <v>65336</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3515025603068607</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2695826147958383</v>
+        <v>0.2724029943047446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4291296619700259</v>
+        <v>0.4306469428950251</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>38551</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31270</v>
+        <v>32131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44129</v>
+        <v>44620</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6950486796893333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5637831366464822</v>
+        <v>0.5793020697592286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7956257663188371</v>
+        <v>0.8044789434511088</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -1704,19 +1704,19 @@
         <v>59836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49209</v>
+        <v>49318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68793</v>
+        <v>69453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6216716349728223</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5112632340530309</v>
+        <v>0.5123992144675703</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7147298729384952</v>
+        <v>0.7215873885785179</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -1725,19 +1725,19 @@
         <v>98387</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86610</v>
+        <v>86379</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110815</v>
+        <v>110387</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6484974396931393</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5708703380299742</v>
+        <v>0.5693530571049744</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7304173852041618</v>
+        <v>0.7275970056952552</v>
       </c>
     </row>
     <row r="18">
@@ -1850,19 +1850,19 @@
         <v>144912</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127058</v>
+        <v>124989</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>165043</v>
+        <v>165016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.340913213445888</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2989103634887043</v>
+        <v>0.2940442843256169</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3882727909990156</v>
+        <v>0.3882085660807385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -1871,19 +1871,19 @@
         <v>145826</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126496</v>
+        <v>125737</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>164604</v>
+        <v>168594</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3401475559731717</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2950588261759565</v>
+        <v>0.2932872795729775</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3839470564787876</v>
+        <v>0.3932538938142731</v>
       </c>
     </row>
     <row r="20">
@@ -1921,19 +1921,19 @@
         <v>280158</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260027</v>
+        <v>260054</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>298012</v>
+        <v>300081</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.659086786554112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6117272090009844</v>
+        <v>0.6117914339192614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7010896365112956</v>
+        <v>0.705955715674383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>281</v>
@@ -1942,19 +1942,19 @@
         <v>282889</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>264111</v>
+        <v>260121</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>302219</v>
+        <v>302978</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6598524440268283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6160529435212124</v>
+        <v>0.6067461061857266</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7049411738240434</v>
+        <v>0.7067127204270223</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>132209</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113200</v>
+        <v>113675</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>151309</v>
+        <v>152766</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2635995941774828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.225698983585097</v>
+        <v>0.2266472966095932</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3016816359320408</v>
+        <v>0.3045861908973629</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>217</v>
@@ -2067,19 +2067,19 @@
         <v>232744</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3438677704819641</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>356</v>
@@ -2088,19 +2088,19 @@
         <v>364953</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>332055</v>
+        <v>336683</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>396765</v>
+        <v>397482</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3097038032074262</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2817859454262528</v>
+        <v>0.2857133638463251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3367003578928703</v>
+        <v>0.3373082220842394</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>369342</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>350242</v>
+        <v>348785</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>388351</v>
+        <v>387876</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7364004058225172</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6983183640679591</v>
+        <v>0.6954138091026372</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.774301016414903</v>
+        <v>0.7733527033904068</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>444</v>
@@ -2138,19 +2138,19 @@
         <v>444098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>827</v>
@@ -2159,19 +2159,19 @@
         <v>813440</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>781628</v>
+        <v>780911</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>846338</v>
+        <v>841710</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6902961967925738</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6632996421071296</v>
+        <v>0.6626917779157604</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7182140545737471</v>
+        <v>0.7142866361536748</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>8400</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3961</v>
+        <v>4089</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15535</v>
+        <v>16550</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1912720799425576</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09020091657197576</v>
+        <v>0.09311249602208019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3537163726433697</v>
+        <v>0.3768359725819026</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2526,19 +2526,19 @@
         <v>3261</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8835</v>
+        <v>8358</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1289487849443567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04038658899629601</v>
+        <v>0.03982229675052819</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3493483407789849</v>
+        <v>0.3304807448019232</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2547,19 +2547,19 @@
         <v>11661</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6138</v>
+        <v>5724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20172</v>
+        <v>20205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1684983201474838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08869091139013405</v>
+        <v>0.08270258496798934</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2914790179738415</v>
+        <v>0.2919437618340184</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>35518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28383</v>
+        <v>27368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39957</v>
+        <v>39829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8087279200574424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6462836273566299</v>
+        <v>0.6231640274180973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9097990834280242</v>
+        <v>0.9068875039779197</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -2597,19 +2597,19 @@
         <v>22028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16454</v>
+        <v>16931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24268</v>
+        <v>24282</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8710512150556433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6506516592210151</v>
+        <v>0.669519255198077</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.959613411003704</v>
+        <v>0.9601777032494719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -2618,19 +2618,19 @@
         <v>57546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49035</v>
+        <v>49002</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63069</v>
+        <v>63483</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8315016798525162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7085209820261584</v>
+        <v>0.7080562381659815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9113090886098658</v>
+        <v>0.917297415032011</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>9510</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4139</v>
+        <v>4344</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17372</v>
+        <v>18078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1568608307909717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06826637744853291</v>
+        <v>0.07165109518036306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2865316996105493</v>
+        <v>0.2981678971162915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2743,19 +2743,19 @@
         <v>8808</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4390</v>
+        <v>4067</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13440</v>
+        <v>13406</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4659764476805506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.232258507295891</v>
+        <v>0.2151459900091437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7110340692936739</v>
+        <v>0.7092474466728111</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -2764,19 +2764,19 @@
         <v>18318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11159</v>
+        <v>11272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27795</v>
+        <v>27862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.230325883554304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1403111620268198</v>
+        <v>0.1417342081213444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3494812612753078</v>
+        <v>0.3503252855260624</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>51120</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43258</v>
+        <v>42552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56491</v>
+        <v>56286</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8431391692090283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7134683003894507</v>
+        <v>0.7018321028837086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9317336225514672</v>
+        <v>0.9283489048196371</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -2814,19 +2814,19 @@
         <v>10094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5462</v>
+        <v>5496</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14512</v>
+        <v>14835</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5340235523194494</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2889659307063261</v>
+        <v>0.2907525533271887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7677414927041089</v>
+        <v>0.7848540099908562</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -2835,19 +2835,19 @@
         <v>61213</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51736</v>
+        <v>51669</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>68372</v>
+        <v>68259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7696741164456959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6505187387246923</v>
+        <v>0.6496747144739369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8596888379731803</v>
+        <v>0.8582657918786549</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>26458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17713</v>
+        <v>17343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37451</v>
+        <v>38649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2229840578481128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1492849291442546</v>
+        <v>0.1461651583563495</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.315636183880182</v>
+        <v>0.3257308907141054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2960,19 +2960,19 @@
         <v>19001</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12133</v>
+        <v>12747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26703</v>
+        <v>27447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3479140193437401</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.222153764328323</v>
+        <v>0.2334012601909762</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4889317204547566</v>
+        <v>0.5025573454317669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -2981,19 +2981,19 @@
         <v>45459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34091</v>
+        <v>33685</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60753</v>
+        <v>58737</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2623623073861552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1967512829691789</v>
+        <v>0.1944083679633332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3506293867604496</v>
+        <v>0.3389921992233497</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>92195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81202</v>
+        <v>80004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100940</v>
+        <v>101310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7770159421518873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6843638161198177</v>
+        <v>0.6742691092858947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8507150708557453</v>
+        <v>0.8538348416436505</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -3031,19 +3031,19 @@
         <v>35614</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27912</v>
+        <v>27168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42482</v>
+        <v>41868</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6520859806562599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5110682795452436</v>
+        <v>0.4974426545682331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7778462356716773</v>
+        <v>0.7665987398090239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>114</v>
@@ -3052,19 +3052,19 @@
         <v>127809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112515</v>
+        <v>114531</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139177</v>
+        <v>139583</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7376376926138447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6493706132395504</v>
+        <v>0.6610078007766503</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.803248717030821</v>
+        <v>0.8055916320366668</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>69557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55843</v>
+        <v>55853</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85015</v>
+        <v>85799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3001323677968433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2409569890915096</v>
+        <v>0.24100035446369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3668341605260072</v>
+        <v>0.3702168913038143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -3177,19 +3177,19 @@
         <v>23843</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16213</v>
+        <v>16836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31737</v>
+        <v>32014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3967623318574751</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2697865910723276</v>
+        <v>0.2801644551744789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5281105980226517</v>
+        <v>0.5327303493356019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -3198,19 +3198,19 @@
         <v>93400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77053</v>
+        <v>77187</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110426</v>
+        <v>109247</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3200297037401352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2640162020053865</v>
+        <v>0.2644775549088919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.378367421072434</v>
+        <v>0.3743281940694274</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>162196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146738</v>
+        <v>145954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175910</v>
+        <v>175900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6998676322031567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6331658394739927</v>
+        <v>0.6297831086961857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.75904301090849</v>
+        <v>0.7589996455363099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -3248,19 +3248,19 @@
         <v>36252</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28358</v>
+        <v>28081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43882</v>
+        <v>43259</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6032376681425249</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4718894019773481</v>
+        <v>0.4672696506643975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7302134089276721</v>
+        <v>0.7198355448255206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -3269,19 +3269,19 @@
         <v>198448</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>181422</v>
+        <v>182601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>214795</v>
+        <v>214661</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6799702962598648</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.621632578927566</v>
+        <v>0.6256718059305728</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7359837979946134</v>
+        <v>0.7355224450911083</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>36032</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26592</v>
+        <v>25899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46029</v>
+        <v>45818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3508585750277295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2589366871233105</v>
+        <v>0.2521865473036207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4482103707276359</v>
+        <v>0.446149756156507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -3394,19 +3394,19 @@
         <v>84558</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70807</v>
+        <v>71026</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98384</v>
+        <v>98311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4488205778851058</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3758308752738478</v>
+        <v>0.3769982028569271</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5222075019744059</v>
+        <v>0.5218184992135418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -3415,19 +3415,19 @@
         <v>120590</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103903</v>
+        <v>102899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136855</v>
+        <v>138450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4142605786762686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.356935734809216</v>
+        <v>0.3534879728885232</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4701374188289227</v>
+        <v>0.4756171374526398</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>66664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56667</v>
+        <v>56878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76104</v>
+        <v>76797</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6491414249722706</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.551789629272364</v>
+        <v>0.5538502438434929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7410633128766896</v>
+        <v>0.7478134526963793</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -3465,19 +3465,19 @@
         <v>103842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>90016</v>
+        <v>90089</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>117593</v>
+        <v>117374</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5511794221148941</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4777924980255939</v>
+        <v>0.478181500786458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6241691247261522</v>
+        <v>0.6230017971430728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -3486,19 +3486,19 @@
         <v>170506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154241</v>
+        <v>152646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>187193</v>
+        <v>188197</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5857394213237314</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5298625811710774</v>
+        <v>0.5243828625473601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6430642651907841</v>
+        <v>0.6465120271114763</v>
       </c>
     </row>
     <row r="18">
@@ -3603,19 +3603,19 @@
         <v>146177</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127519</v>
+        <v>129224</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>165580</v>
+        <v>165631</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3703462318811803</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3230745915865398</v>
+        <v>0.3273938690754598</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4195052368347219</v>
+        <v>0.4196324638998193</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -3624,19 +3624,19 @@
         <v>146177</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126771</v>
+        <v>127749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>165877</v>
+        <v>166583</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3684905194028034</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3195704518604596</v>
+        <v>0.3220347847335959</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4181501448774129</v>
+        <v>0.4199313736598895</v>
       </c>
     </row>
     <row r="20">
@@ -3666,19 +3666,19 @@
         <v>248527</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229124</v>
+        <v>229073</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>267185</v>
+        <v>265480</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6296537681188197</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5804947631652779</v>
+        <v>0.5803675361001804</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6769254084134598</v>
+        <v>0.6726061309245402</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>236</v>
@@ -3687,19 +3687,19 @@
         <v>250515</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>230815</v>
+        <v>230109</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>269921</v>
+        <v>268943</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6315094805971966</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5818498551225872</v>
+        <v>0.5800686263401106</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6804295481395405</v>
+        <v>0.6779652152664043</v>
       </c>
     </row>
     <row r="21">
@@ -3791,19 +3791,19 @@
         <v>149957</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2679534505116735</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>262</v>
@@ -3812,19 +3812,19 @@
         <v>285649</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>258893</v>
+        <v>256285</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>315248</v>
+        <v>311567</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3849685040527093</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3489101405527321</v>
+        <v>0.3453954931304581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.424859291150783</v>
+        <v>0.4198992135110333</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>395</v>
@@ -3833,19 +3833,19 @@
         <v>435605</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>400215</v>
+        <v>400432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>470884</v>
+        <v>470148</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3346582367842196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3074691336255719</v>
+        <v>0.3076359617156308</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3617614578318661</v>
+        <v>0.3611961234544515</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>409680</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>431</v>
@@ -3883,19 +3883,19 @@
         <v>456356</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>426757</v>
+        <v>430438</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>483112</v>
+        <v>485720</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6150314959472908</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5751407088492169</v>
+        <v>0.5801007864889665</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6510898594472679</v>
+        <v>0.6546045068695415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>802</v>
@@ -3904,19 +3904,19 @@
         <v>866037</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>830758</v>
+        <v>831494</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>901427</v>
+        <v>901210</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6653417632157803</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6382385421681339</v>
+        <v>0.6388038765455485</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6925308663744282</v>
+        <v>0.6923640382843692</v>
       </c>
     </row>
     <row r="24">
@@ -4250,19 +4250,19 @@
         <v>7028</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2942</v>
+        <v>3259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13301</v>
+        <v>13460</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1023809512653202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04285187916875061</v>
+        <v>0.04747813623614366</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1937533062594473</v>
+        <v>0.1960717883614655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4271,19 +4271,19 @@
         <v>9420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3919</v>
+        <v>4492</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16382</v>
+        <v>16665</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2553811274973679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1062295112544794</v>
+        <v>0.1217666504020177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4440972942679671</v>
+        <v>0.451783641659057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4292,19 +4292,19 @@
         <v>16449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9520</v>
+        <v>9210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26281</v>
+        <v>26245</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1558599080540008</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0902023712087708</v>
+        <v>0.08726638064514426</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2490296421353343</v>
+        <v>0.2486866909434634</v>
       </c>
     </row>
     <row r="5">
@@ -4321,19 +4321,19 @@
         <v>61619</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55346</v>
+        <v>55187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65705</v>
+        <v>65388</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8976190487346798</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8062466937405527</v>
+        <v>0.8039282116385346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9571481208312494</v>
+        <v>0.9525218637638563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -4342,19 +4342,19 @@
         <v>27468</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20506</v>
+        <v>20223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32969</v>
+        <v>32396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.744618872502632</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5559027057320324</v>
+        <v>0.5482163583409432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8937704887455207</v>
+        <v>0.8782333495979825</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -4363,19 +4363,19 @@
         <v>89086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79254</v>
+        <v>79290</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96015</v>
+        <v>96325</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8441400919459993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7509703578646658</v>
+        <v>0.7513133090565363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9097976287912292</v>
+        <v>0.9127336193548558</v>
       </c>
     </row>
     <row r="6">
@@ -4467,19 +4467,19 @@
         <v>10754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5868</v>
+        <v>6181</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16509</v>
+        <v>17392</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2015995630424158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1100120370654839</v>
+        <v>0.1158701790517838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3094852764772886</v>
+        <v>0.3260272393922746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4488,19 +4488,19 @@
         <v>8058</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3423</v>
+        <v>3499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12898</v>
+        <v>12884</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4581317119112078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1946447636650542</v>
+        <v>0.1989147559183786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7333211268065739</v>
+        <v>0.7325417811300015</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4509,19 +4509,19 @@
         <v>18812</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12006</v>
+        <v>11873</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26792</v>
+        <v>26264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2652086978773098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1692668574757835</v>
+        <v>0.1673807811833099</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3777163422204991</v>
+        <v>0.3702734741407603</v>
       </c>
     </row>
     <row r="8">
@@ -4538,19 +4538,19 @@
         <v>42590</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36835</v>
+        <v>35952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47476</v>
+        <v>47163</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7984004369575842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6905147235227117</v>
+        <v>0.6739727606077257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8899879629345161</v>
+        <v>0.8841298209482161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4559,19 +4559,19 @@
         <v>9530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4690</v>
+        <v>4704</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14165</v>
+        <v>14089</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5418682880887922</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2666788731934261</v>
+        <v>0.2674582188699985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8053552363349459</v>
+        <v>0.8010852440816215</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>50</v>
@@ -4580,19 +4580,19 @@
         <v>52120</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>44140</v>
+        <v>44668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58926</v>
+        <v>59059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7347913021226903</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6222836577795009</v>
+        <v>0.6297265258592397</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8307331425242165</v>
+        <v>0.8326192188166902</v>
       </c>
     </row>
     <row r="9">
@@ -4684,19 +4684,19 @@
         <v>16483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10132</v>
+        <v>10354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24621</v>
+        <v>24488</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1370595840973834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08424807279376875</v>
+        <v>0.0860964363369348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2047257335591688</v>
+        <v>0.2036248868039297</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4705,19 +4705,19 @@
         <v>16300</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9134</v>
+        <v>9352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23639</v>
+        <v>23810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3527427656246548</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1976693903041192</v>
+        <v>0.2023895207153459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5115612649091729</v>
+        <v>0.5152746951375027</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -4726,19 +4726,19 @@
         <v>32783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23413</v>
+        <v>23867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44614</v>
+        <v>44322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1969291002674348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1406431011950515</v>
+        <v>0.1433731565548029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2680027202034557</v>
+        <v>0.2662455212541077</v>
       </c>
     </row>
     <row r="11">
@@ -4755,19 +4755,19 @@
         <v>103778</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95640</v>
+        <v>95773</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110129</v>
+        <v>109907</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8629404159026165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7952742664408312</v>
+        <v>0.7963751131960703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9157519272062312</v>
+        <v>0.9139035636630652</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -4776,19 +4776,19 @@
         <v>29909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22570</v>
+        <v>22399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37075</v>
+        <v>36857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6472572343753452</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4884387350908271</v>
+        <v>0.4847253048624971</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8023306096958808</v>
+        <v>0.7976104792846541</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>133</v>
@@ -4797,19 +4797,19 @@
         <v>133687</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>121856</v>
+        <v>122148</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>143057</v>
+        <v>142603</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8030708997325652</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7319972797965443</v>
+        <v>0.7337544787458923</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8593568988049489</v>
+        <v>0.856626843445197</v>
       </c>
     </row>
     <row r="12">
@@ -4901,19 +4901,19 @@
         <v>41779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31427</v>
+        <v>30137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52275</v>
+        <v>52776</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2049442811985519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1541649101061118</v>
+        <v>0.1478343271945747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2564299847365819</v>
+        <v>0.258887413410763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -4922,19 +4922,19 @@
         <v>34201</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24058</v>
+        <v>24756</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44916</v>
+        <v>46432</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.345308781338651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2429006451770783</v>
+        <v>0.2499421447432272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4534873681251129</v>
+        <v>0.4687908434973231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -4943,19 +4943,19 @@
         <v>75981</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61086</v>
+        <v>59022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92855</v>
+        <v>90906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2508421374378762</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2016686240907804</v>
+        <v>0.1948540075043899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3065501485834509</v>
+        <v>0.3001159933979564</v>
       </c>
     </row>
     <row r="14">
@@ -4972,19 +4972,19 @@
         <v>162077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151581</v>
+        <v>151080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172429</v>
+        <v>173719</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7950557188014481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7435700152634183</v>
+        <v>0.741112586589237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8458350898938883</v>
+        <v>0.8521656728054254</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -4993,19 +4993,19 @@
         <v>64845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54130</v>
+        <v>52614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74988</v>
+        <v>74290</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6546912186613489</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5465126318748872</v>
+        <v>0.5312091565026769</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7570993548229217</v>
+        <v>0.7500578552567728</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -5014,19 +5014,19 @@
         <v>226921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>210047</v>
+        <v>211996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>241816</v>
+        <v>243880</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7491578625621238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.693449851416549</v>
+        <v>0.6998840066020435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7983313759092195</v>
+        <v>0.8051459924956101</v>
       </c>
     </row>
     <row r="15">
@@ -5118,19 +5118,19 @@
         <v>48299</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38597</v>
+        <v>38389</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59453</v>
+        <v>59891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3325909196462101</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2657797519890867</v>
+        <v>0.2643520391640313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4093998663092296</v>
+        <v>0.4124141409010902</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -5139,19 +5139,19 @@
         <v>55072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41638</v>
+        <v>42613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67072</v>
+        <v>68808</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.345170380310478</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2609732444947681</v>
+        <v>0.2670820055427209</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4203850662096882</v>
+        <v>0.4312622789813153</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -5160,19 +5160,19 @@
         <v>103371</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86775</v>
+        <v>86731</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119433</v>
+        <v>121384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3391763753743862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2847206119689513</v>
+        <v>0.2845765731554138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3918771804554873</v>
+        <v>0.3982801232088708</v>
       </c>
     </row>
     <row r="17">
@@ -5189,19 +5189,19 @@
         <v>96922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85768</v>
+        <v>85330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106624</v>
+        <v>106832</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.66740908035379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5906001336907705</v>
+        <v>0.5875858590989097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7342202480109133</v>
+        <v>0.7356479608359687</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -5210,19 +5210,19 @@
         <v>104478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>92478</v>
+        <v>90742</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>117912</v>
+        <v>116937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.654829619689522</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5796149337903118</v>
+        <v>0.5687377210186846</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7390267555052319</v>
+        <v>0.7329179944572791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -5231,19 +5231,19 @@
         <v>201400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>185338</v>
+        <v>183387</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>217996</v>
+        <v>218040</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6608236246256138</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6081228195445127</v>
+        <v>0.6017198767911294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7152793880310487</v>
+        <v>0.7154234268445863</v>
       </c>
     </row>
     <row r="18">
@@ -5344,19 +5344,19 @@
         <v>151255</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>130342</v>
+        <v>128820</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172255</v>
+        <v>172657</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.366161758533544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3155338026151835</v>
+        <v>0.3118495821020467</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4169991836048818</v>
+        <v>0.4179708199094163</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>120</v>
@@ -5365,19 +5365,19 @@
         <v>151255</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130342</v>
+        <v>128820</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172255</v>
+        <v>172657</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.366161758533544</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3155338026151835</v>
+        <v>0.3118495821020467</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4169991836048818</v>
+        <v>0.4179708199094163</v>
       </c>
     </row>
     <row r="20">
@@ -5403,19 +5403,19 @@
         <v>261828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240828</v>
+        <v>240426</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>282741</v>
+        <v>284263</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6338382414664561</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.583000816395118</v>
+        <v>0.5820291800905838</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6844661973848165</v>
+        <v>0.6881504178979534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>227</v>
@@ -5424,19 +5424,19 @@
         <v>261828</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240828</v>
+        <v>240426</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>282741</v>
+        <v>284263</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6338382414664561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.583000816395118</v>
+        <v>0.5820291800905838</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6844661973848165</v>
+        <v>0.6881504178979534</v>
       </c>
     </row>
     <row r="21">
@@ -5516,19 +5516,19 @@
         <v>124343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>105692</v>
+        <v>105867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142358</v>
+        <v>143017</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2102780061344388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1787360360020671</v>
+        <v>0.1790318553672144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.240743027232943</v>
+        <v>0.2418572840000608</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>220</v>
@@ -5537,19 +5537,19 @@
         <v>274307</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>244370</v>
+        <v>245150</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>304392</v>
+        <v>302187</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.355151953511909</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3163924648813878</v>
+        <v>0.3174017000739793</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3941037512940602</v>
+        <v>0.3912489120614807</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>359</v>
@@ -5558,19 +5558,19 @@
         <v>398650</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>365659</v>
+        <v>364337</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>434984</v>
+        <v>434646</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2923312993912361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2681387100908106</v>
+        <v>0.2671696788004054</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3189755593171711</v>
+        <v>0.3187276102643337</v>
       </c>
     </row>
     <row r="23">
@@ -5587,19 +5587,19 @@
         <v>466985</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>448970</v>
+        <v>448311</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>485636</v>
+        <v>485461</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7897219938655612</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7592569727670571</v>
+        <v>0.7581427159999391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8212639639979329</v>
+        <v>0.8209681446327856</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>430</v>
@@ -5608,19 +5608,19 @@
         <v>498057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>467972</v>
+        <v>470177</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>527994</v>
+        <v>527214</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6448480464880909</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6058962487059399</v>
+        <v>0.6087510879385194</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6836075351186122</v>
+        <v>0.6825982999260208</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>918</v>
@@ -5629,19 +5629,19 @@
         <v>965042</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>928708</v>
+        <v>929046</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>998033</v>
+        <v>999355</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7076687006087639</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6810244406828289</v>
+        <v>0.6812723897356663</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7318612899091893</v>
+        <v>0.7328303211995948</v>
       </c>
     </row>
     <row r="24">
@@ -5975,19 +5975,19 @@
         <v>12586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8224</v>
+        <v>7730</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19394</v>
+        <v>18732</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1055681328085402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06897477161186943</v>
+        <v>0.06483419168888552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1626648979854824</v>
+        <v>0.1571170901047395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -5996,19 +5996,19 @@
         <v>16466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11218</v>
+        <v>11687</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22895</v>
+        <v>22549</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2208447660767795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1504612394382175</v>
+        <v>0.1567475725919301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3070698038408651</v>
+        <v>0.3024361542278785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -6017,19 +6017,19 @@
         <v>29052</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21364</v>
+        <v>21477</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37685</v>
+        <v>37448</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.149921218610023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1102473234451181</v>
+        <v>0.1108272147122399</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1944682706168613</v>
+        <v>0.1932473360262603</v>
       </c>
     </row>
     <row r="5">
@@ -6046,19 +6046,19 @@
         <v>106639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99831</v>
+        <v>100493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111001</v>
+        <v>111495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8944318671914598</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8373351020145178</v>
+        <v>0.8428829098952608</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9310252283881306</v>
+        <v>0.9351658083111151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -6067,19 +6067,19 @@
         <v>58093</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51664</v>
+        <v>52010</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63341</v>
+        <v>62872</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7791552339232205</v>
+        <v>0.7791552339232206</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6929301961591349</v>
+        <v>0.6975638457721214</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8495387605617822</v>
+        <v>0.8432524274080699</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -6088,19 +6088,19 @@
         <v>164732</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>156099</v>
+        <v>156336</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>172420</v>
+        <v>172307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8500787813899772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.805531729383139</v>
+        <v>0.8067526639737397</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8897526765548822</v>
+        <v>0.8891727852877602</v>
       </c>
     </row>
     <row r="6">
@@ -6192,19 +6192,19 @@
         <v>18089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12615</v>
+        <v>11861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25191</v>
+        <v>24922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1727461411140318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1204708257428128</v>
+        <v>0.1132673012048906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2405669017516139</v>
+        <v>0.2380003530621214</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -6213,19 +6213,19 @@
         <v>16161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11196</v>
+        <v>11585</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21972</v>
+        <v>21816</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2917954119887579</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2021561978110633</v>
+        <v>0.209173753890438</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3967068248356418</v>
+        <v>0.3938912925788179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -6234,19 +6234,19 @@
         <v>34250</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26711</v>
+        <v>26620</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43089</v>
+        <v>44194</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2139298938825271</v>
+        <v>0.2139298938825272</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1668417580778434</v>
+        <v>0.1662716191236418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2691394468406458</v>
+        <v>0.2760428146207231</v>
       </c>
     </row>
     <row r="8">
@@ -6263,19 +6263,19 @@
         <v>86626</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79524</v>
+        <v>79793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>92100</v>
+        <v>92854</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8272538588859681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7594330982483865</v>
+        <v>0.7619996469378789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8795291742571874</v>
+        <v>0.8867326987951096</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -6284,19 +6284,19 @@
         <v>39224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33413</v>
+        <v>33569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44189</v>
+        <v>43800</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7082045880112421</v>
+        <v>0.7082045880112422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6032931751643583</v>
+        <v>0.6061087074211819</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7978438021889368</v>
+        <v>0.7908262461095618</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>191</v>
@@ -6305,19 +6305,19 @@
         <v>125850</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>117011</v>
+        <v>115906</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133389</v>
+        <v>133480</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7860701061174727</v>
+        <v>0.7860701061174729</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7308605531593542</v>
+        <v>0.7239571853792769</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8331582419221565</v>
+        <v>0.8337283808763581</v>
       </c>
     </row>
     <row r="9">
@@ -6409,19 +6409,19 @@
         <v>21102</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15138</v>
+        <v>15117</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28634</v>
+        <v>29119</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1886069079576337</v>
+        <v>0.1886069079576336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1353029788685379</v>
+        <v>0.1351144397023371</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2559262154624519</v>
+        <v>0.260263369269514</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -6430,19 +6430,19 @@
         <v>24281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18794</v>
+        <v>18590</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30110</v>
+        <v>30159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4264850461972299</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3301069449793255</v>
+        <v>0.3265126005351698</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5288494448254014</v>
+        <v>0.5297224690912036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -6451,19 +6451,19 @@
         <v>45384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36571</v>
+        <v>37290</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55409</v>
+        <v>55693</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2688312731769378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2166283269826582</v>
+        <v>0.2208863292483573</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3282152768506992</v>
+        <v>0.3299013232689897</v>
       </c>
     </row>
     <row r="11">
@@ -6480,19 +6480,19 @@
         <v>90782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83250</v>
+        <v>82765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96746</v>
+        <v>96767</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8113930920423664</v>
+        <v>0.8113930920423662</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7440737845375488</v>
+        <v>0.7397366307304859</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8646970211314622</v>
+        <v>0.8648855602976628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -6501,19 +6501,19 @@
         <v>32653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26824</v>
+        <v>26775</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38140</v>
+        <v>38344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.57351495380277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4711505551745984</v>
+        <v>0.4702775309087964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6698930550206744</v>
+        <v>0.6734873994648302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>190</v>
@@ -6522,19 +6522,19 @@
         <v>123434</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113409</v>
+        <v>113125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132247</v>
+        <v>131528</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7311687268230622</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6717847231493004</v>
+        <v>0.67009867673101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7833716730173417</v>
+        <v>0.7791136707516428</v>
       </c>
     </row>
     <row r="12">
@@ -6626,19 +6626,19 @@
         <v>84332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72198</v>
+        <v>72133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97654</v>
+        <v>97087</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3277280280100252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2805735667107547</v>
+        <v>0.2803189204997076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3795001385032812</v>
+        <v>0.377292974936132</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -6647,19 +6647,19 @@
         <v>41716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34526</v>
+        <v>34550</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49126</v>
+        <v>49708</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3187336077196471</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2637988892379799</v>
+        <v>0.2639859405832211</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.37535299665699</v>
+        <v>0.3797975990914281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -6668,19 +6668,19 @@
         <v>126048</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111583</v>
+        <v>110488</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141196</v>
+        <v>139936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3246956329758119</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2874332913596387</v>
+        <v>0.2846130320007147</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.363715334095533</v>
+        <v>0.3604691737494062</v>
       </c>
     </row>
     <row r="14">
@@ -6697,19 +6697,19 @@
         <v>172992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159670</v>
+        <v>160237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>185126</v>
+        <v>185191</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6722719719899749</v>
+        <v>0.6722719719899748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6204998614967187</v>
+        <v>0.6227070250638681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7194264332892452</v>
+        <v>0.7196810795002923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>176</v>
@@ -6718,19 +6718,19 @@
         <v>89164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81754</v>
+        <v>81172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96354</v>
+        <v>96330</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6812663922803528</v>
+        <v>0.6812663922803527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.62464700334301</v>
+        <v>0.6202024009085718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7362011107620201</v>
+        <v>0.7360140594167789</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>421</v>
@@ -6739,19 +6739,19 @@
         <v>262156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>247008</v>
+        <v>248268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>276621</v>
+        <v>277716</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6753043670241883</v>
+        <v>0.6753043670241882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6362846659044669</v>
+        <v>0.6395308262505938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7125667086403613</v>
+        <v>0.7153869679992854</v>
       </c>
     </row>
     <row r="15">
@@ -6843,19 +6843,19 @@
         <v>34296</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26147</v>
+        <v>26863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42310</v>
+        <v>42076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.346234462766415</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2639622498934597</v>
+        <v>0.2711950449318877</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4271405997198333</v>
+        <v>0.4247766645172059</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -6864,19 +6864,19 @@
         <v>106112</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95167</v>
+        <v>95850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115950</v>
+        <v>116368</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4861392207888855</v>
+        <v>0.4861392207888854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4359962950113698</v>
+        <v>0.4391282269794137</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.531211773167342</v>
+        <v>0.5331263506164965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -6885,19 +6885,19 @@
         <v>140407</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127212</v>
+        <v>127229</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>152633</v>
+        <v>152820</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4424679874271647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4008869754295589</v>
+        <v>0.4009404582509055</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4809968973392598</v>
+        <v>0.4815850558676004</v>
       </c>
     </row>
     <row r="17">
@@ -6914,19 +6914,19 @@
         <v>64758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56744</v>
+        <v>56978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72907</v>
+        <v>72191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6537655372335849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5728594002801668</v>
+        <v>0.575223335482794</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7360377501065406</v>
+        <v>0.7288049550681122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>222</v>
@@ -6935,19 +6935,19 @@
         <v>112162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102324</v>
+        <v>101906</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>123107</v>
+        <v>122424</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5138607792111146</v>
+        <v>0.5138607792111145</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4687882268326579</v>
+        <v>0.4668736493835033</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5640037049886302</v>
+        <v>0.5608717730205862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>311</v>
@@ -6956,19 +6956,19 @@
         <v>176920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>164694</v>
+        <v>164507</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190115</v>
+        <v>190098</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5575320125728352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5190031026607403</v>
+        <v>0.5184149441323995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5991130245704411</v>
+        <v>0.5990595417490946</v>
       </c>
     </row>
     <row r="18">
@@ -7060,7 +7060,7 @@
         <v>2204</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>3276</v>
@@ -7069,7 +7069,7 @@
         <v>0.6727456091529725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1753445647139325</v>
+        <v>0.1892256228645394</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -7081,19 +7081,19 @@
         <v>158279</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>143381</v>
+        <v>144891</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>171666</v>
+        <v>172297</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4605631231967563</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4172137801874199</v>
+        <v>0.4216070240040305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4995161588539185</v>
+        <v>0.5013537412142461</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>289</v>
@@ -7102,19 +7102,19 @@
         <v>160483</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>146377</v>
+        <v>147093</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172685</v>
+        <v>174521</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4625667614094852</v>
+        <v>0.4625667614094851</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4219081361015873</v>
+        <v>0.4239714347293845</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4977361132966201</v>
+        <v>0.5030272374647466</v>
       </c>
     </row>
     <row r="20">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>348</v>
@@ -7152,19 +7152,19 @@
         <v>185385</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>171998</v>
+        <v>171367</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200283</v>
+        <v>198773</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5394368768032437</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5004838411460815</v>
+        <v>0.4986462587857538</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5827862198125806</v>
+        <v>0.5783929759959694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>350</v>
@@ -7173,19 +7173,19 @@
         <v>186458</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>174256</v>
+        <v>172420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>200564</v>
+        <v>199848</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5374332385905148</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5022638867033798</v>
+        <v>0.4969727625352533</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5780918638984128</v>
+        <v>0.5760285652706145</v>
       </c>
     </row>
     <row r="21">
@@ -7277,19 +7277,19 @@
         <v>172610</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>152497</v>
+        <v>155899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191930</v>
+        <v>191893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2481886350916664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2192693435364834</v>
+        <v>0.2241608545337384</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2759690749776483</v>
+        <v>0.2759150919611473</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>684</v>
@@ -7298,19 +7298,19 @@
         <v>363015</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>341892</v>
+        <v>342770</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>383360</v>
+        <v>385802</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4126595381438972</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.388647978720788</v>
+        <v>0.3896463405719572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4357868612302517</v>
+        <v>0.4385624412824948</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>948</v>
@@ -7319,19 +7319,19 @@
         <v>535625</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>505719</v>
+        <v>504224</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>566788</v>
+        <v>562212</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3400415577050648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3210558773764836</v>
+        <v>0.3201065738178994</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3598255601469063</v>
+        <v>0.3569202763845715</v>
       </c>
     </row>
     <row r="23">
@@ -7348,19 +7348,19 @@
         <v>522868</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>503548</v>
+        <v>503585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>542981</v>
+        <v>539579</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7518113649083336</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7240309250223518</v>
+        <v>0.7240849080388528</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7807306564635166</v>
+        <v>0.7758391454662618</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>981</v>
@@ -7369,19 +7369,19 @@
         <v>516681</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>496336</v>
+        <v>493894</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>537804</v>
+        <v>536926</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5873404618561029</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5642131387697483</v>
+        <v>0.5614375587175052</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6113520212792115</v>
+        <v>0.6103536594280426</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1715</v>
@@ -7390,19 +7390,19 @@
         <v>1039549</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1008386</v>
+        <v>1012962</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1069455</v>
+        <v>1070950</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6599584422949352</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6401744398530937</v>
+        <v>0.6430797236154286</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6789441226235163</v>
+        <v>0.6798934261821008</v>
       </c>
     </row>
     <row r="24">
